--- a/techniqo/data_new_ticker/INDIAMART.xlsx
+++ b/techniqo/data_new_ticker/INDIAMART.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10781,6 +10781,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>5075</v>
+      </c>
+      <c r="C298" t="n">
+        <v>5227</v>
+      </c>
+      <c r="D298" t="n">
+        <v>5057</v>
+      </c>
+      <c r="E298" t="n">
+        <v>5139.55</v>
+      </c>
+      <c r="F298" t="n">
+        <v>173768</v>
+      </c>
+      <c r="G298" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>5164.8</v>
+      </c>
+      <c r="C299" t="n">
+        <v>5216.5</v>
+      </c>
+      <c r="D299" t="n">
+        <v>4922.35</v>
+      </c>
+      <c r="E299" t="n">
+        <v>5135.8</v>
+      </c>
+      <c r="F299" t="n">
+        <v>145738</v>
+      </c>
+      <c r="G299" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/INDIAMART.xlsx
+++ b/techniqo/data_new_ticker/INDIAMART.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G299"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10831,6 +10831,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>5150</v>
+      </c>
+      <c r="C300" t="n">
+        <v>5161.5</v>
+      </c>
+      <c r="D300" t="n">
+        <v>4921</v>
+      </c>
+      <c r="E300" t="n">
+        <v>4966</v>
+      </c>
+      <c r="F300" t="n">
+        <v>114199</v>
+      </c>
+      <c r="G300" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>5017.4</v>
+      </c>
+      <c r="C301" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D301" t="n">
+        <v>4945</v>
+      </c>
+      <c r="E301" t="n">
+        <v>5005</v>
+      </c>
+      <c r="F301" t="n">
+        <v>143606</v>
+      </c>
+      <c r="G301" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
